--- a/thresholds/IGCSE/music/music-thresholds.xlsx
+++ b/thresholds/IGCSE/music/music-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,36 +493,36 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>P1 50</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="F2" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -575,7 +575,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -616,7 +616,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BY1 12,82,83</t>
+          <t>Z 02,03,13</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -650,33 +650,33 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>November 2022</t>
+          <t>June 2022</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BY2 12,92,93</t>
+          <t>BY1 12,82,83</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>170</v>
       </c>
       <c r="C6" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D6" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E6" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G6" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
         <v>43</v>
@@ -698,26 +698,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>BY2 12,92,93</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>170</v>
       </c>
       <c r="C7" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G7" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
         <v>43</v>
@@ -739,7 +739,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -780,7 +780,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -821,73 +821,73 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>BY (BY1) 12,82,83</t>
+          <t>Z 02,03,13</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>170</v>
       </c>
       <c r="C10" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G10" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H10" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2022</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BY (BY2) 12,92,93</t>
+          <t>BY (BY1) 12,82,83</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>170</v>
       </c>
       <c r="C11" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D11" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E11" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -903,32 +903,32 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>BY (BY2) 12,92,93</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>170</v>
       </c>
       <c r="C12" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -944,7 +944,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1026,61 +1026,61 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>Z 02,03,13</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>170</v>
       </c>
       <c r="C15" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D15" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E15" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G15" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>170</v>
       </c>
       <c r="C16" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D16" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" t="n">
         <v>73</v>
@@ -1108,20 +1108,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>170</v>
       </c>
       <c r="C17" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E17" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F17" t="n">
         <v>73</v>
@@ -1149,61 +1149,61 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>BZ 13,82/92,83/93</t>
+          <t>Z 02,03,13</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>170</v>
       </c>
       <c r="C18" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E18" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F18" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>BZ 13,82/92,83/93</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>170</v>
       </c>
       <c r="C19" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D19" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E19" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" t="n">
         <v>75</v>
@@ -1231,20 +1231,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>170</v>
       </c>
       <c r="C20" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D20" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" t="n">
         <v>75</v>
@@ -1272,20 +1272,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>170</v>
       </c>
       <c r="C21" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D21" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E21" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F21" t="n">
         <v>75</v>
@@ -1313,7 +1313,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>Z 02,03,13</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1347,14 +1347,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1395,7 +1395,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1436,7 +1436,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>BY 12,82/92,83/93</t>
+          <t>Z 02,03,13</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1470,14 +1470,14 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>X 02,03,11</t>
+          <t>BY 12,82/92,83/93</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1518,7 +1518,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Y 02,03,12</t>
+          <t>X 02,03,11</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1559,7 +1559,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Z 02,03,13</t>
+          <t>Y 02,03,12</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1575,23 +1575,64 @@
         <v>94</v>
       </c>
       <c r="F28" t="n">
+        <v>75</v>
+      </c>
+      <c r="G28" t="n">
+        <v>61</v>
+      </c>
+      <c r="H28" t="n">
+        <v>47</v>
+      </c>
+      <c r="I28" t="n">
+        <v>33</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Z 02,03,13</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>170</v>
+      </c>
+      <c r="C29" t="n">
+        <v>132</v>
+      </c>
+      <c r="D29" t="n">
+        <v>113</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94</v>
+      </c>
+      <c r="F29" t="n">
         <v>76</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>62</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H29" t="n">
         <v>49</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I29" t="n">
         <v>35</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>November 2024</t>
         </is>
